--- a/cta策略/result/螺纹/MACD_30min/wfo_最优两组参数的绩效.xlsx
+++ b/cta策略/result/螺纹/MACD_30min/wfo_最优两组参数的绩效.xlsx
@@ -420,16 +420,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.009737527985640426</v>
+        <v>0.162177312368432</v>
       </c>
       <c r="D2">
-        <v>-0.1952430458529588</v>
+        <v>0.7037474490383367</v>
       </c>
       <c r="E2">
-        <v>0.03400038558032283</v>
+        <v>0.8720602781231951</v>
       </c>
       <c r="F2">
-        <v>0.6875</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -440,16 +440,16 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.03090729958858796</v>
+        <v>0.1057527332108406</v>
       </c>
       <c r="D3">
-        <v>-0.06142280242257749</v>
+        <v>0.3951380425853421</v>
       </c>
       <c r="E3">
-        <v>0.1559533012546348</v>
+        <v>0.5679445141487484</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>0.5625</v>
       </c>
     </row>
   </sheetData>
